--- a/public/uploads/DataAccountBudge.xlsx
+++ b/public/uploads/DataAccountBudge.xlsx
@@ -726,148 +726,148 @@
     <t>Non-Academic Fellowship (Staff IT)</t>
   </si>
   <si>
+    <t>6-2312</t>
+  </si>
+  <si>
+    <t>Non-Academic Fellowship (Supporting)</t>
+  </si>
+  <si>
+    <t>6-2313</t>
+  </si>
+  <si>
+    <t>Whole Fellowship &amp; Gala Dinner</t>
+  </si>
+  <si>
+    <t>6-2321</t>
+  </si>
+  <si>
+    <t>Picnic/Retreat</t>
+  </si>
+  <si>
+    <t>6-2331</t>
+  </si>
+  <si>
+    <t>Employee Benefit</t>
+  </si>
+  <si>
+    <t>6-2332</t>
+  </si>
+  <si>
+    <t>DPLK Pribadi</t>
+  </si>
+  <si>
+    <t>6-2400</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>6-2401</t>
+  </si>
+  <si>
+    <t>Job Advertisement</t>
+  </si>
+  <si>
+    <t>6-2402</t>
+  </si>
+  <si>
+    <t>Job Applicant Psychotest</t>
+  </si>
+  <si>
+    <t>6-2403</t>
+  </si>
+  <si>
+    <t>Job Applicant Lunch</t>
+  </si>
+  <si>
+    <t>6-2500</t>
+  </si>
+  <si>
+    <t>Marketing &amp; Documentation</t>
+  </si>
+  <si>
+    <t>6-2501</t>
+  </si>
+  <si>
+    <t>Public Relation</t>
+  </si>
+  <si>
+    <t>6-2502</t>
+  </si>
+  <si>
+    <t>School Advertisement &amp; Profile</t>
+  </si>
+  <si>
+    <t>6-2503</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>6-2511</t>
+  </si>
+  <si>
+    <t>Multimedia</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>MULTIMEDIA</t>
+  </si>
+  <si>
+    <t>6-2600</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>6-2601</t>
+  </si>
+  <si>
+    <t>6-2602</t>
+  </si>
+  <si>
+    <t>Bus Rent &amp; Bus Driver Meal Allowance</t>
+  </si>
+  <si>
+    <t>6-2700</t>
+  </si>
+  <si>
+    <t>Utility &amp; Cleaning</t>
+  </si>
+  <si>
+    <t>6-2701</t>
+  </si>
+  <si>
+    <t>Biaya Pemeliharaan Lingkungan (BPL)</t>
+  </si>
+  <si>
+    <t>6-2702</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>6-2703</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>6-2704</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>6-2705</t>
+  </si>
+  <si>
+    <t>Short Message Service (SMS)</t>
+  </si>
+  <si>
     <t>IT</t>
-  </si>
-  <si>
-    <t>6-2312</t>
-  </si>
-  <si>
-    <t>Non-Academic Fellowship (Supporting)</t>
-  </si>
-  <si>
-    <t>6-2313</t>
-  </si>
-  <si>
-    <t>Whole Fellowship &amp; Gala Dinner</t>
-  </si>
-  <si>
-    <t>6-2321</t>
-  </si>
-  <si>
-    <t>Picnic/Retreat</t>
-  </si>
-  <si>
-    <t>6-2331</t>
-  </si>
-  <si>
-    <t>Employee Benefit</t>
-  </si>
-  <si>
-    <t>6-2332</t>
-  </si>
-  <si>
-    <t>DPLK Pribadi</t>
-  </si>
-  <si>
-    <t>6-2400</t>
-  </si>
-  <si>
-    <t>Recruitment</t>
-  </si>
-  <si>
-    <t>6-2401</t>
-  </si>
-  <si>
-    <t>Job Advertisement</t>
-  </si>
-  <si>
-    <t>6-2402</t>
-  </si>
-  <si>
-    <t>Job Applicant Psychotest</t>
-  </si>
-  <si>
-    <t>6-2403</t>
-  </si>
-  <si>
-    <t>Job Applicant Lunch</t>
-  </si>
-  <si>
-    <t>6-2500</t>
-  </si>
-  <si>
-    <t>Marketing &amp; Documentation</t>
-  </si>
-  <si>
-    <t>6-2501</t>
-  </si>
-  <si>
-    <t>Public Relation</t>
-  </si>
-  <si>
-    <t>6-2502</t>
-  </si>
-  <si>
-    <t>School Advertisement &amp; Profile</t>
-  </si>
-  <si>
-    <t>6-2503</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
-    <t>6-2511</t>
-  </si>
-  <si>
-    <t>Multimedia</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>MULTIMEDIA</t>
-  </si>
-  <si>
-    <t>6-2600</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>6-2601</t>
-  </si>
-  <si>
-    <t>6-2602</t>
-  </si>
-  <si>
-    <t>Bus Rent &amp; Bus Driver Meal Allowance</t>
-  </si>
-  <si>
-    <t>6-2700</t>
-  </si>
-  <si>
-    <t>Utility &amp; Cleaning</t>
-  </si>
-  <si>
-    <t>6-2701</t>
-  </si>
-  <si>
-    <t>Biaya Pemeliharaan Lingkungan (BPL)</t>
-  </si>
-  <si>
-    <t>6-2702</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>6-2703</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>6-2704</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>6-2705</t>
-  </si>
-  <si>
-    <t>Short Message Service (SMS)</t>
   </si>
   <si>
     <t>6-2706</t>
@@ -1097,11 +1097,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1141,16 +1141,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,15 +1186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,13 +1195,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,7 +1225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,10 +1248,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1269,21 +1284,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1294,7 +1294,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,13 +1348,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,25 +1396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,7 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,43 +1456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,55 +1474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,17 +1608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1643,6 +1632,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1654,15 +1654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,10 +1672,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,31 +1702,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1735,97 +1735,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2249,8 +2249,8 @@
   <sheetPr/>
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4827,7 +4827,7 @@
         <v>61</v>
       </c>
       <c r="H118" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4841,10 +4841,10 @@
         <v>225</v>
       </c>
       <c r="D119" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119" t="s">
         <v>237</v>
-      </c>
-      <c r="E119" t="s">
-        <v>238</v>
       </c>
       <c r="F119" t="s">
         <v>171</v>
@@ -4864,10 +4864,10 @@
         <v>225</v>
       </c>
       <c r="D120" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" t="s">
         <v>239</v>
-      </c>
-      <c r="E120" t="s">
-        <v>240</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -4887,10 +4887,10 @@
         <v>225</v>
       </c>
       <c r="D121" t="s">
+        <v>240</v>
+      </c>
+      <c r="E121" t="s">
         <v>241</v>
-      </c>
-      <c r="E121" t="s">
-        <v>242</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
@@ -4910,10 +4910,10 @@
         <v>225</v>
       </c>
       <c r="D122" t="s">
+        <v>242</v>
+      </c>
+      <c r="E122" t="s">
         <v>243</v>
-      </c>
-      <c r="E122" t="s">
-        <v>244</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -4933,10 +4933,10 @@
         <v>225</v>
       </c>
       <c r="D123" t="s">
+        <v>244</v>
+      </c>
+      <c r="E123" t="s">
         <v>245</v>
-      </c>
-      <c r="E123" t="s">
-        <v>246</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
@@ -4953,10 +4953,10 @@
         <v>193</v>
       </c>
       <c r="C124" t="s">
+        <v>246</v>
+      </c>
+      <c r="E124" t="s">
         <v>247</v>
-      </c>
-      <c r="E124" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4967,13 +4967,13 @@
         <v>193</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D125" t="s">
+        <v>248</v>
+      </c>
+      <c r="E125" t="s">
         <v>249</v>
-      </c>
-      <c r="E125" t="s">
-        <v>250</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -4990,13 +4990,13 @@
         <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D126" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" t="s">
         <v>251</v>
-      </c>
-      <c r="E126" t="s">
-        <v>252</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -5013,13 +5013,13 @@
         <v>193</v>
       </c>
       <c r="C127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D127" t="s">
+        <v>252</v>
+      </c>
+      <c r="E127" t="s">
         <v>253</v>
-      </c>
-      <c r="E127" t="s">
-        <v>254</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -5036,10 +5036,10 @@
         <v>193</v>
       </c>
       <c r="C128" t="s">
+        <v>254</v>
+      </c>
+      <c r="E128" t="s">
         <v>255</v>
-      </c>
-      <c r="E128" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5050,13 +5050,13 @@
         <v>193</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D129" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" t="s">
         <v>257</v>
-      </c>
-      <c r="E129" t="s">
-        <v>258</v>
       </c>
       <c r="F129" t="s">
         <v>123</v>
@@ -5073,13 +5073,13 @@
         <v>193</v>
       </c>
       <c r="C130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D130" t="s">
+        <v>258</v>
+      </c>
+      <c r="E130" t="s">
         <v>259</v>
-      </c>
-      <c r="E130" t="s">
-        <v>260</v>
       </c>
       <c r="F130" t="s">
         <v>123</v>
@@ -5096,13 +5096,13 @@
         <v>193</v>
       </c>
       <c r="C131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D131" t="s">
+        <v>260</v>
+      </c>
+      <c r="E131" t="s">
         <v>261</v>
-      </c>
-      <c r="E131" t="s">
-        <v>262</v>
       </c>
       <c r="F131" t="s">
         <v>123</v>
@@ -5119,19 +5119,19 @@
         <v>193</v>
       </c>
       <c r="C132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D132" t="s">
+        <v>262</v>
+      </c>
+      <c r="E132" t="s">
         <v>263</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>264</v>
       </c>
-      <c r="F132" t="s">
+      <c r="H132" t="s">
         <v>265</v>
-      </c>
-      <c r="H132" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5142,10 +5142,10 @@
         <v>193</v>
       </c>
       <c r="C133" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" t="s">
         <v>267</v>
-      </c>
-      <c r="E133" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5156,13 +5156,13 @@
         <v>193</v>
       </c>
       <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" t="s">
+        <v>268</v>
+      </c>
+      <c r="E134" t="s">
         <v>267</v>
-      </c>
-      <c r="D134" t="s">
-        <v>269</v>
-      </c>
-      <c r="E134" t="s">
-        <v>268</v>
       </c>
       <c r="F134" t="s">
         <v>171</v>
@@ -5179,13 +5179,13 @@
         <v>193</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D135" t="s">
+        <v>269</v>
+      </c>
+      <c r="E135" t="s">
         <v>270</v>
-      </c>
-      <c r="E135" t="s">
-        <v>271</v>
       </c>
       <c r="F135" t="s">
         <v>171</v>
@@ -5202,10 +5202,10 @@
         <v>193</v>
       </c>
       <c r="C136" t="s">
+        <v>271</v>
+      </c>
+      <c r="E136" t="s">
         <v>272</v>
-      </c>
-      <c r="E136" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5216,13 +5216,13 @@
         <v>193</v>
       </c>
       <c r="C137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D137" t="s">
+        <v>273</v>
+      </c>
+      <c r="E137" t="s">
         <v>274</v>
-      </c>
-      <c r="E137" t="s">
-        <v>275</v>
       </c>
       <c r="F137" t="s">
         <v>171</v>
@@ -5239,13 +5239,13 @@
         <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D138" t="s">
+        <v>275</v>
+      </c>
+      <c r="E138" t="s">
         <v>276</v>
-      </c>
-      <c r="E138" t="s">
-        <v>277</v>
       </c>
       <c r="F138" t="s">
         <v>171</v>
@@ -5262,13 +5262,13 @@
         <v>193</v>
       </c>
       <c r="C139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D139" t="s">
+        <v>277</v>
+      </c>
+      <c r="E139" t="s">
         <v>278</v>
-      </c>
-      <c r="E139" t="s">
-        <v>279</v>
       </c>
       <c r="F139" t="s">
         <v>171</v>
@@ -5285,13 +5285,13 @@
         <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D140" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" t="s">
         <v>280</v>
-      </c>
-      <c r="E140" t="s">
-        <v>281</v>
       </c>
       <c r="F140" t="s">
         <v>171</v>
@@ -5308,19 +5308,19 @@
         <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D141" t="s">
+        <v>281</v>
+      </c>
+      <c r="E141" t="s">
         <v>282</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
+        <v>61</v>
+      </c>
+      <c r="H141" t="s">
         <v>283</v>
-      </c>
-      <c r="F141" t="s">
-        <v>236</v>
-      </c>
-      <c r="H141" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5331,7 +5331,7 @@
         <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D142" t="s">
         <v>284</v>
@@ -5340,10 +5340,10 @@
         <v>285</v>
       </c>
       <c r="F142" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="H142" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5354,7 +5354,7 @@
         <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D143" t="s">
         <v>286</v>
@@ -5377,7 +5377,7 @@
         <v>193</v>
       </c>
       <c r="C144" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D144" t="s">
         <v>288</v>
@@ -5400,7 +5400,7 @@
         <v>193</v>
       </c>
       <c r="C145" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D145" t="s">
         <v>290</v>
@@ -5538,10 +5538,10 @@
         <v>303</v>
       </c>
       <c r="F151" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="H151" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5851,10 +5851,10 @@
         <v>331</v>
       </c>
       <c r="F165" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="H165" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5874,10 +5874,10 @@
         <v>331</v>
       </c>
       <c r="F166" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="H166" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6160,10 +6160,10 @@
         <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="H180" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7977,7 +7977,7 @@
         <v>235</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -7985,11 +7985,11 @@
       <c r="B118" s="11"/>
       <c r="C118" s="26"/>
       <c r="D118" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G118" s="20" t="s">
         <v>171</v>
@@ -8000,11 +8000,11 @@
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>14</v>
@@ -8015,11 +8015,11 @@
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>14</v>
@@ -8030,11 +8030,11 @@
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G121" s="20" t="s">
         <v>14</v>
@@ -8045,11 +8045,11 @@
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G122" s="20" t="s">
         <v>14</v>
@@ -8059,11 +8059,11 @@
       <c r="A123" s="14"/>
       <c r="B123" s="11"/>
       <c r="C123" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="11"/>
@@ -8073,11 +8073,11 @@
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G124" s="20" t="s">
         <v>14</v>
@@ -8088,11 +8088,11 @@
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G125" s="20" t="s">
         <v>14</v>
@@ -8103,11 +8103,11 @@
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>14</v>
@@ -8117,11 +8117,11 @@
       <c r="A127" s="14"/>
       <c r="B127" s="11"/>
       <c r="C127" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="8"/>
@@ -8131,11 +8131,11 @@
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>123</v>
@@ -8146,11 +8146,11 @@
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G129" s="20" t="s">
         <v>123</v>
@@ -8161,11 +8161,11 @@
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G130" s="20" t="s">
         <v>123</v>
@@ -8176,25 +8176,25 @@
       <c r="B131" s="11"/>
       <c r="C131" s="8"/>
       <c r="D131" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="14"/>
       <c r="B132" s="11"/>
       <c r="C132" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="8"/>
@@ -8204,11 +8204,11 @@
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G133" s="20" t="s">
         <v>171</v>
@@ -8219,11 +8219,11 @@
       <c r="B134" s="11"/>
       <c r="C134" s="8"/>
       <c r="D134" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G134" s="20" t="s">
         <v>171</v>
@@ -8233,11 +8233,11 @@
       <c r="A135" s="14"/>
       <c r="B135" s="11"/>
       <c r="C135" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="11"/>
@@ -8247,11 +8247,11 @@
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>171</v>
@@ -8262,11 +8262,11 @@
       <c r="B137" s="11"/>
       <c r="C137" s="8"/>
       <c r="D137" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>171</v>
@@ -8277,11 +8277,11 @@
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G138" s="20" t="s">
         <v>171</v>
@@ -8292,11 +8292,11 @@
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G139" s="20" t="s">
         <v>171</v>
@@ -8307,14 +8307,14 @@
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G140" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="G140" s="20" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8329,7 +8329,7 @@
         <v>285</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8462,7 +8462,7 @@
         <v>303</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8670,7 +8670,7 @@
         <v>331</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -8685,7 +8685,7 @@
         <v>331</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -8889,7 +8889,7 @@
         <v>341</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -9046,7 +9046,7 @@
         <v>357</v>
       </c>
       <c r="G197" s="34" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
     </row>
     <row r="198" spans="6:7">
@@ -9054,7 +9054,7 @@
         <v>357</v>
       </c>
       <c r="G198" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="6:7">
